--- a/Employee_Reports35/Gabuin James Buintim Q0396.xlsx
+++ b/Employee_Reports35/Gabuin James Buintim Q0396.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">

--- a/Employee_Reports35/Gabuin James Buintim Q0396.xlsx
+++ b/Employee_Reports35/Gabuin James Buintim Q0396.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -609,11 +609,11 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
